--- a/demoProject/FrontEnd/src/assets/demo_files/demoproject.xlsx
+++ b/demoProject/FrontEnd/src/assets/demo_files/demoproject.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>person_id</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Chandhu</t>
+  </si>
+  <si>
+    <t>Paracetamol</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm-dd-yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -112,6 +115,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -140,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -158,6 +165,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,6 +548,59 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>1.222038E7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5">
+        <v>36596.0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.222038092E9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>210.0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.222038082E9</v>
+      </c>
+      <c r="L4" s="4">
+        <v>150.0</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>210.0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1.70825157E9</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
